--- a/策划文档/技能.xlsx
+++ b/策划文档/技能.xlsx
@@ -4,10 +4,10 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="90" windowWidth="23715" windowHeight="9270" activeTab="11"/>
+    <workbookView xWindow="120" yWindow="90" windowWidth="23715" windowHeight="9270" activeTab="4"/>
   </bookViews>
   <sheets>
-    <sheet name="怪物模型" sheetId="6" r:id="rId1"/>
+    <sheet name="说明" sheetId="6" r:id="rId1"/>
     <sheet name="金" sheetId="1" r:id="rId2"/>
     <sheet name="木" sheetId="2" r:id="rId3"/>
     <sheet name="水" sheetId="3" r:id="rId4"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="728" uniqueCount="414">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="818" uniqueCount="442">
   <si>
     <t>金刚之躯</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -146,10 +146,6 @@
   </si>
   <si>
     <t>金刺外壳</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>让皮肤变得和金子一样坚硬，大幅提高自身防御</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -556,10 +552,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>狮子 燃烧火焰</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>老虎</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -585,10 +577,6 @@
   </si>
   <si>
     <t>图形名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>技能图标及对应怪物部件</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -813,14 +801,6 @@
   </si>
   <si>
     <t>出现蓝色鳞片</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>被动技能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>被动技能</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1260,10 +1240,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>战斗结束后获得（）%额外金币</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>当敌方造成伤害时给予反击。反击伤害=敌方造成伤害*反击系数</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1393,18 +1369,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>每回合有几率进化异常负面状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>自身弹球附近出现音障，敌方玩家弹球触碰减少其速度</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>放置一个金钱炸弹至战斗区域内，敌方弹球触碰后爆炸并对敌方造成基础攻击力的（）%的伤害，并加成爆炸区域（爆炸半径：75）内元素攻击分数（无论属性相克，均视为同种属性）。即先结算爆炸区域内元素分数*基础攻击力*技能加成（百分比）。炸弹持续回合（）。敌方可视技能释放，但不可见战斗区域内炸弹位置</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>技能百分数，击晕几率</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1413,22 +1381,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>游戏场景内所有木系元素转变成陷阱，敌方玩家触碰将被藤蔓缠绕，丧失行动力1回合，陷阱持续（）回合。同时己方弹球触碰木系陷阱，陷阱将不会消失。但第一次碰撞后失去碰撞体积，即玩家触碰转变木系陷阱元素后获得攻击分数，但木系陷阱不消失，玩家弹球经过反弹再次触碰此木系元素。此元素将不会加成玩家攻击分数，也不改变玩家弹球路径。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>技能释放需在玩家拖动释放弹球之前</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>同时游戏场景内 始终保持各系元素2个。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>即玩家回合时，先选择释放的技能，后拖动弹球，弹球移动搜集分数，弹球停止移动，系统做分数结算。攻击对手。之后进入对手回合，系统在随机区域填补之前消除元素。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>战斗区域内敌方玩家弹球摩擦系数翻倍，影响敌方行动回合3回合</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1466,10 +1422,6 @@
   </si>
   <si>
     <t>使所有灼烧伤害加成（）%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>相生火元素将获得更高的攻击分数，持续回合增加1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1506,10 +1458,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>第一回合钻下地底，第二回合攻击对手。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">场景内所有土元素转变为沙尘陷阱，持续3回合，敌方玩家进入其周围50内将被吸入（即速度为0回合结束）
 </t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1561,10 +1509,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>相克元素将不再百分比加成攻击分数，玩家弹球触碰相克元素将在游戏区域内随机产生一个玩家宠物所属元素。此生成元素保持两回合后消失。且相克元素不会消失</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>使相生出的土系元素有几率变成岩石</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1699,6 +1643,230 @@
   </si>
   <si>
     <t>弹球击中每个土元素上升5%的防御，可叠加3次，持续1回合。并不在受到灼烧影响</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类别</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>从属</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>主动技能</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>宠物形态1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>被动技能</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>宠物形态2</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>主动技能</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>宠物形态2</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>宠物形态3</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>宠物形态3</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>每回合有几率进化异常负面状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>战斗结束后获得1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>%额外金币</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>放置一个金钱炸弹至战斗区域内，敌方弹球触碰后爆炸并对敌方造成基础攻击力的200</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>%的伤害，并加成爆炸区域（爆炸半径：75）内元素攻击分数（无论属性相克，均视为同种属性）。即先结算爆炸区域内元素分数*基础攻击力*技能加成（百分比）。炸弹持续回合</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。敌方可视技能释放，但不可见战斗区域内炸弹位置</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主动技能（玩家可选择炸弹放置区域）</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>战斗场景内含各系元素球一个（共计五个），并且系统随机出五个不同种类元素球。即战斗场景内包含至少五个各系元素球，5个随机的元素球</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>宠物的被动技能没有动作，主动技能均包含动作</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>让皮肤变得和金子一样坚硬，大幅提高自身基础防御</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当主动技能效果和战斗区域内元素数量有关时，系统在玩家选择释放该技能后随即计算元素数目，在玩家弹出弹球后新生成的元素不计入技能效果</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>即玩家回合时，先选择释放的技能，后拖动弹球，弹球移动搜集分数，系统在随机区域填补之前消除元素，弹球停止移动，系统做分数结算。攻击对手。之后进入对手回合。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家触碰与自己相同元素或相生元素会积攒能量和攻击分数，相生与同种元素触碰消失，触碰相克球会减少能量和攻击分数，相克元素触碰不会消失只会相互弹开。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>游戏场景内所有木系元素转变成陷阱，敌方玩家触碰将被藤蔓缠绕，丧失行动力1回合，技能效果持续（）回合。同时己方弹球触碰木系陷阱，陷阱将不会消失。但第一次碰撞后失去碰撞体积，即玩家触碰转变木系陷阱元素后获得攻击分数，但木系陷阱不消失，玩家弹球经过反弹再次触碰此木系元素。此元素将不会加成玩家攻击分数，也不改变玩家弹球路径。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>几率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>漩涡范围</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>减少耗魔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>耗魔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>防御加成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>几率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能等级加成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>破防几率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伤害百分数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提升几率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>防御值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提升闪避值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>灼烧伤害加成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>减少放弃防御值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>减少摩擦系数百分比</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ps：俊超之前一个问题，如果按那个元素表的话，同种元素就不会有加成，那岂不算成了相克元素。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>提高火系元素的能力获得和攻击分数加成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能伤害百分比</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一回合钻下地底，第二回合攻击对手。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能加成百分比</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提升最低生命值</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1706,7 +1874,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="6">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1748,13 +1916,76 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1766,12 +1997,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1802,8 +2036,99 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="差" xfId="1" builtinId="27"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2107,7 +2432,7 @@
   <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="E24" sqref="E13:E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2121,22 +2446,22 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>344</v>
+        <v>335</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>346</v>
+      <c r="A2" s="6" t="s">
+        <v>418</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="6" t="s">
-        <v>379</v>
+        <v>414</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="6" t="s">
-        <v>345</v>
+        <v>419</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -2144,20 +2469,25 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="6" t="s">
-        <v>378</v>
+        <v>365</v>
       </c>
       <c r="B6" s="6"/>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="4"/>
-      <c r="B7" s="6"/>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="4"/>
-      <c r="B8" s="6"/>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="4"/>
+      <c r="A7" s="6" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" s="22" customFormat="1">
+      <c r="A8" s="20" t="s">
+        <v>415</v>
+      </c>
+      <c r="B8" s="21"/>
+    </row>
+    <row r="9" spans="1:2" ht="162">
+      <c r="A9" s="4" t="s">
+        <v>436</v>
+      </c>
       <c r="B9" s="6"/>
     </row>
     <row r="10" spans="1:2">
@@ -2206,7 +2536,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="27">
@@ -2223,7 +2553,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="27">
@@ -2240,7 +2570,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="27">
@@ -2305,7 +2635,7 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -2338,7 +2668,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="27">
@@ -2355,7 +2685,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="27">
@@ -2372,7 +2702,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="27">
@@ -2389,7 +2719,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="27">
@@ -2406,7 +2736,7 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
   </sheetData>
@@ -2419,7 +2749,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
@@ -2430,193 +2760,193 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C1" t="s">
         <v>139</v>
       </c>
-      <c r="B1" t="s">
-        <v>141</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="D1" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="E1" t="s">
         <v>142</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" t="s">
         <v>143</v>
-      </c>
-      <c r="E1" t="s">
-        <v>145</v>
-      </c>
-      <c r="F1" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="40.5">
       <c r="A2" s="4" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="28.5">
       <c r="A3" s="3" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>374</v>
+        <v>361</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="324">
       <c r="A4" s="3" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>383</v>
+        <v>369</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="310.5">
       <c r="A5" s="3" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>384</v>
+        <v>370</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="85.5">
       <c r="A6" s="3" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>375</v>
+        <v>362</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="54">
       <c r="A7" s="3" t="s">
-        <v>376</v>
+        <v>363</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>388</v>
+        <v>374</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="F7" s="1"/>
     </row>
     <row r="8" spans="1:6" ht="121.5">
       <c r="A8" s="4" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>377</v>
+        <v>364</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="D8" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="E8" s="4" t="s">
         <v>200</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="81">
       <c r="A9" s="3" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>382</v>
+        <v>368</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="D9" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="E9" s="4" t="s">
         <v>200</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="54">
       <c r="A10" s="3" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>380</v>
+        <v>366</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="40.5">
       <c r="A11" s="3" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>381</v>
+        <v>367</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -2651,7 +2981,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
@@ -2663,199 +2993,199 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>143</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="54">
       <c r="A2" s="7" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>385</v>
+        <v>371</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="F2" s="2"/>
     </row>
     <row r="3" spans="1:6" ht="27">
       <c r="A3" s="7" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>386</v>
+        <v>372</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="F3" s="2"/>
     </row>
     <row r="4" spans="1:6" ht="27">
       <c r="A4" s="7" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>389</v>
+        <v>375</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="F4" s="2"/>
     </row>
     <row r="5" spans="1:6" ht="121.5">
       <c r="A5" s="7" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>390</v>
+        <v>376</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="F5" s="2"/>
     </row>
     <row r="6" spans="1:6" ht="40.5">
       <c r="A6" s="7" t="s">
-        <v>391</v>
+        <v>377</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>392</v>
+        <v>378</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="F6" s="2"/>
     </row>
     <row r="7" spans="1:6" ht="27">
       <c r="A7" s="7" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>393</v>
+        <v>379</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="F7" s="2"/>
     </row>
     <row r="8" spans="1:6" ht="81">
       <c r="A8" s="9" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>394</v>
+        <v>380</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="F8" s="2"/>
     </row>
     <row r="9" spans="1:6" ht="27">
       <c r="A9" s="7" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="F9" s="2"/>
     </row>
     <row r="10" spans="1:6" ht="54">
       <c r="A10" s="7" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>396</v>
+        <v>382</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="D10" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="E10" s="7" t="s">
         <v>200</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>205</v>
       </c>
       <c r="F10" s="2"/>
     </row>
     <row r="11" spans="1:6" ht="27">
       <c r="A11" s="7" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>395</v>
+        <v>381</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="7" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="F11" s="2"/>
     </row>
@@ -2899,7 +3229,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
@@ -2910,192 +3240,192 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C1" t="s">
         <v>139</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="D1" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="E1" t="s">
         <v>142</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="F1" t="s">
         <v>143</v>
-      </c>
-      <c r="E1" t="s">
-        <v>145</v>
-      </c>
-      <c r="F1" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="121.5">
       <c r="A2" s="1" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>397</v>
+        <v>383</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="81">
       <c r="A3" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>384</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>246</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>398</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>243</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="67.5">
       <c r="A4" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>385</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>249</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>399</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>254</v>
-      </c>
       <c r="D4" s="4" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="27">
       <c r="A5" s="3" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="85.5">
       <c r="A6" s="3" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="67.5">
       <c r="A7" s="3" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="94.5">
       <c r="A8" s="4" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>400</v>
+        <v>386</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="128.25">
       <c r="A9" s="3" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="54">
       <c r="A10" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="E10" s="4" t="s">
         <v>247</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>245</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="121.5">
       <c r="A11" s="3" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -3125,7 +3455,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="E15" sqref="E15:E16"/>
     </sheetView>
   </sheetViews>
@@ -3133,209 +3463,209 @@
   <sheetData>
     <row r="1" spans="1:7" ht="27">
       <c r="A1" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>143</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>146</v>
       </c>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7" ht="108">
       <c r="A2" s="5" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>401</v>
+        <v>387</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7" ht="57">
       <c r="A3" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>266</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>271</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="4" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
     </row>
     <row r="4" spans="1:7" ht="81">
       <c r="A4" s="4" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
     </row>
     <row r="5" spans="1:7" ht="27">
       <c r="A5" s="4" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
     </row>
     <row r="6" spans="1:7" ht="94.5">
       <c r="A6" s="4" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
     </row>
     <row r="7" spans="1:7" ht="148.5">
       <c r="A7" s="4" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>402</v>
+        <v>388</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
     </row>
     <row r="8" spans="1:7" ht="40.5">
       <c r="A8" s="4" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
     </row>
     <row r="9" spans="1:7" ht="108">
       <c r="A9" s="4" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
     </row>
     <row r="10" spans="1:7" ht="162">
       <c r="A10" s="4" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>403</v>
+        <v>389</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
     </row>
     <row r="11" spans="1:7" ht="94.5">
       <c r="A11" s="4" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>404</v>
+        <v>390</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
@@ -3389,226 +3719,226 @@
   <sheetData>
     <row r="1" spans="1:6" ht="27">
       <c r="A1" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>143</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="94.5">
       <c r="A2" s="4" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>409</v>
+        <v>395</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="F2" s="1"/>
     </row>
     <row r="3" spans="1:6" ht="148.5">
       <c r="A3" s="4" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>408</v>
+        <v>394</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="F3" s="1"/>
     </row>
     <row r="4" spans="1:6" ht="94.5">
       <c r="A4" s="4" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>407</v>
+        <v>393</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="F4" s="1"/>
     </row>
     <row r="5" spans="1:6" ht="94.5">
       <c r="A5" s="4" t="s">
-        <v>405</v>
+        <v>391</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>406</v>
+        <v>392</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="F5" s="1"/>
     </row>
     <row r="6" spans="1:6" ht="108">
       <c r="A6" s="4" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>412</v>
+        <v>398</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="F6" s="1"/>
     </row>
     <row r="7" spans="1:6" ht="81">
       <c r="A7" s="4" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>411</v>
+        <v>397</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="F7" s="1"/>
     </row>
     <row r="8" spans="1:6" ht="40.5">
       <c r="A8" s="4" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="27">
       <c r="A9" s="4" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="27">
       <c r="A10" s="4" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="121.5">
       <c r="A11" s="4" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="6" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B15" s="1"/>
     </row>
     <row r="16" spans="1:6" ht="40.5">
       <c r="A16" s="4" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="67.5">
       <c r="A17" s="4" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
     </row>
   </sheetData>
@@ -3629,42 +3959,42 @@
   <sheetData>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B9" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
+        <v>121</v>
+      </c>
+      <c r="B10" t="s">
         <v>122</v>
-      </c>
-      <c r="B10" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
+        <v>123</v>
+      </c>
+      <c r="B11" t="s">
         <v>124</v>
-      </c>
-      <c r="B11" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
+        <v>125</v>
+      </c>
+      <c r="B12" t="s">
         <v>126</v>
-      </c>
-      <c r="B12" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
+        <v>127</v>
+      </c>
+      <c r="B13" t="s">
         <v>128</v>
-      </c>
-      <c r="B13" t="s">
-        <v>129</v>
       </c>
     </row>
   </sheetData>
@@ -3692,8 +4022,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L70"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3708,47 +4038,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" t="s">
-        <v>140</v>
-      </c>
       <c r="C1" s="6"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
     </row>
-    <row r="2" spans="1:12">
-      <c r="A2" t="s">
+    <row r="2" spans="1:12" s="10" customFormat="1">
+      <c r="A2" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="C2" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="B2" t="s">
-        <v>141</v>
-      </c>
-      <c r="C2" t="s">
-        <v>142</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
+      <c r="D2" s="11" t="s">
+        <v>297</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>400</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>401</v>
+      </c>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="11"/>
     </row>
     <row r="3" spans="1:12" ht="148.5">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
+      <c r="B3" s="14" t="s">
+        <v>298</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>301</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>402</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>403</v>
+      </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="J3" s="1"/>
@@ -3756,41 +4093,49 @@
       <c r="L3" s="1"/>
     </row>
     <row r="4" spans="1:12" ht="40.5">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>410</v>
+      </c>
+      <c r="C4" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
+      <c r="D4" s="13" t="s">
+        <v>302</v>
+      </c>
+      <c r="E4" s="25" t="s">
+        <v>404</v>
+      </c>
+      <c r="F4" s="13" t="s">
+        <v>403</v>
+      </c>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
     </row>
-    <row r="5" spans="1:12" ht="40.5">
-      <c r="A5" s="1" t="s">
+    <row r="5" spans="1:12" ht="27">
+      <c r="A5" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="E5" s="4"/>
-      <c r="F5" s="1"/>
+      <c r="B5" s="15" t="s">
+        <v>411</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>303</v>
+      </c>
+      <c r="E5" s="25" t="s">
+        <v>404</v>
+      </c>
+      <c r="F5" s="15" t="s">
+        <v>403</v>
+      </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
       <c r="J5" s="1"/>
@@ -3798,20 +4143,24 @@
       <c r="L5" s="1"/>
     </row>
     <row r="6" spans="1:12" ht="54">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>332</v>
+      </c>
+      <c r="C6" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>339</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
+      <c r="D6" s="16" t="s">
+        <v>304</v>
+      </c>
+      <c r="E6" s="16" t="s">
+        <v>402</v>
+      </c>
+      <c r="F6" s="16" t="s">
+        <v>405</v>
+      </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="J6" s="1"/>
@@ -3819,20 +4168,24 @@
       <c r="L6" s="1"/>
     </row>
     <row r="7" spans="1:12" ht="81">
-      <c r="A7" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
+      <c r="A7" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>309</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>305</v>
+      </c>
+      <c r="E7" s="16" t="s">
+        <v>406</v>
+      </c>
+      <c r="F7" s="16" t="s">
+        <v>407</v>
+      </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="J7" s="1"/>
@@ -3840,20 +4193,24 @@
       <c r="L7" s="1"/>
     </row>
     <row r="8" spans="1:12" ht="54">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
+      <c r="B8" s="17" t="s">
+        <v>416</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>306</v>
+      </c>
+      <c r="E8" s="23" t="s">
+        <v>404</v>
+      </c>
+      <c r="F8" s="16" t="s">
+        <v>407</v>
+      </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="J8" s="1"/>
@@ -3861,20 +4218,24 @@
       <c r="L8" s="1"/>
     </row>
     <row r="9" spans="1:12" ht="54">
-      <c r="A9" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>387</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="E9" s="4"/>
-      <c r="F9" s="1"/>
+      <c r="A9" s="18" t="s">
+        <v>178</v>
+      </c>
+      <c r="B9" s="19" t="s">
+        <v>373</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>179</v>
+      </c>
+      <c r="D9" s="19" t="s">
+        <v>302</v>
+      </c>
+      <c r="E9" s="24" t="s">
+        <v>404</v>
+      </c>
+      <c r="F9" s="18" t="s">
+        <v>408</v>
+      </c>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="J9" s="1"/>
@@ -3882,20 +4243,24 @@
       <c r="L9" s="1"/>
     </row>
     <row r="10" spans="1:12" ht="324">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
+      <c r="B10" s="18" t="s">
+        <v>412</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>180</v>
+      </c>
+      <c r="D10" s="19" t="s">
+        <v>307</v>
+      </c>
+      <c r="E10" s="18" t="s">
+        <v>413</v>
+      </c>
+      <c r="F10" s="19" t="s">
+        <v>408</v>
+      </c>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="J10" s="1"/>
@@ -3903,20 +4268,24 @@
       <c r="L10" s="1"/>
     </row>
     <row r="11" spans="1:12" ht="121.5">
-      <c r="A11" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>370</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
+      <c r="A11" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" s="19" t="s">
+        <v>357</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>182</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>308</v>
+      </c>
+      <c r="E11" s="19" t="s">
+        <v>406</v>
+      </c>
+      <c r="F11" s="19" t="s">
+        <v>408</v>
+      </c>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
       <c r="J11" s="1"/>
@@ -3924,20 +4293,24 @@
       <c r="L11" s="1"/>
     </row>
     <row r="12" spans="1:12" ht="67.5">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
+      <c r="B12" s="19" t="s">
+        <v>300</v>
+      </c>
+      <c r="C12" s="18" t="s">
+        <v>181</v>
+      </c>
+      <c r="D12" s="19" t="s">
+        <v>310</v>
+      </c>
+      <c r="E12" s="24" t="s">
+        <v>404</v>
+      </c>
+      <c r="F12" s="19" t="s">
+        <v>408</v>
+      </c>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
       <c r="J12" s="1"/>
@@ -3978,193 +4351,244 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E50"/>
+  <dimension ref="A2:F50"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" t="s">
+    <row r="2" spans="1:6">
+      <c r="A2" s="26" t="s">
+        <v>137</v>
+      </c>
+      <c r="B2" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="C2" s="26" t="s">
         <v>139</v>
       </c>
-      <c r="B2" t="s">
-        <v>141</v>
-      </c>
-      <c r="C2" t="s">
-        <v>142</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="135">
-      <c r="A3" s="1" t="s">
+      <c r="D2" s="12" t="s">
+        <v>297</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>400</v>
+      </c>
+      <c r="F2" s="26" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="135">
+      <c r="A3" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="13" t="s">
+        <v>311</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>319</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>402</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="54">
+      <c r="A4" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>312</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>320</v>
+      </c>
+      <c r="E4" s="25" t="s">
+        <v>404</v>
+      </c>
+      <c r="F4" s="15" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="67.5">
+      <c r="A5" s="13" t="s">
+        <v>313</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>314</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>321</v>
+      </c>
+      <c r="E5" s="25" t="s">
+        <v>404</v>
+      </c>
+      <c r="F5" s="15" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="81">
+      <c r="A6" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>187</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>322</v>
+      </c>
+      <c r="E6" s="16" t="s">
+        <v>402</v>
+      </c>
+      <c r="F6" s="17" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="243">
+      <c r="A7" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>323</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>322</v>
+      </c>
+      <c r="E7" s="16" t="s">
+        <v>402</v>
+      </c>
+      <c r="F7" s="17" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="27">
+      <c r="A8" s="16" t="s">
+        <v>315</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>316</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>186</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>324</v>
+      </c>
+      <c r="E8" s="23" t="s">
+        <v>404</v>
+      </c>
+      <c r="F8" s="17" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="409.5">
+      <c r="A9" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="18" t="s">
+        <v>420</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>188</v>
+      </c>
+      <c r="D9" s="19" t="s">
+        <v>325</v>
+      </c>
+      <c r="E9" s="19" t="s">
+        <v>402</v>
+      </c>
+      <c r="F9" s="18" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="175.5">
+      <c r="A10" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="19" t="s">
+        <v>326</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" s="19" t="s">
+        <v>327</v>
+      </c>
+      <c r="E10" s="19" t="s">
+        <v>402</v>
+      </c>
+      <c r="F10" s="18" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="94.5">
+      <c r="A11" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="18" t="s">
         <v>317</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="E3" s="1"/>
-    </row>
-    <row r="4" spans="1:5" ht="54">
-      <c r="A4" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B4" s="1" t="s">
+      <c r="C11" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>319</v>
+      </c>
+      <c r="E11" s="24" t="s">
+        <v>404</v>
+      </c>
+      <c r="F11" s="18" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="94.5">
+      <c r="A12" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="B12" s="19" t="s">
         <v>318</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="E4" s="4"/>
-    </row>
-    <row r="5" spans="1:5" ht="67.5">
-      <c r="A5" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="E5" s="4"/>
-    </row>
-    <row r="6" spans="1:5" ht="81">
-      <c r="A6" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="E6" s="4"/>
-    </row>
-    <row r="7" spans="1:5" ht="243">
-      <c r="A7" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="E7" s="4"/>
-    </row>
-    <row r="8" spans="1:5" ht="27">
-      <c r="A8" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="B8" s="1" t="s">
+      <c r="C12" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="D12" s="19" t="s">
         <v>322</v>
       </c>
-      <c r="C8" s="4" t="s">
-        <v>189</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="E8" s="4"/>
-    </row>
-    <row r="9" spans="1:5" ht="409.5">
-      <c r="A9" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="E9" s="4"/>
-    </row>
-    <row r="10" spans="1:5" ht="175.5">
-      <c r="A10" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="E10" s="4"/>
-    </row>
-    <row r="11" spans="1:5" ht="94.5">
-      <c r="A11" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>323</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="E11" s="4"/>
-    </row>
-    <row r="12" spans="1:5" ht="94.5">
-      <c r="A12" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="E12" s="4"/>
-    </row>
-    <row r="14" spans="1:5">
+      <c r="E12" s="24" t="s">
+        <v>404</v>
+      </c>
+      <c r="F12" s="18" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="6"/>
       <c r="E14" s="1"/>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:6">
       <c r="A15" s="4"/>
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:6">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="8"/>
@@ -4174,7 +4598,7 @@
     </row>
     <row r="50" spans="1:1">
       <c r="A50" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -4189,216 +4613,280 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F16"/>
+  <dimension ref="A2:G16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" t="s">
+    <row r="2" spans="1:7">
+      <c r="A2" s="26" t="s">
+        <v>137</v>
+      </c>
+      <c r="B2" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="C2" s="26" t="s">
+        <v>139</v>
+      </c>
+      <c r="D2" s="12" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" t="s">
-        <v>139</v>
-      </c>
-      <c r="B2" t="s">
-        <v>141</v>
-      </c>
-      <c r="C2" t="s">
-        <v>142</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="E2" s="26" t="s">
+        <v>328</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>400</v>
+      </c>
+      <c r="G2" s="26" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="40.5">
+      <c r="A3" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D3" s="28" t="s">
+        <v>189</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>322</v>
+      </c>
+      <c r="F3" s="28" t="s">
+        <v>402</v>
+      </c>
+      <c r="G3" s="13" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="67.5">
+      <c r="A4" s="15" t="s">
+        <v>192</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>396</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>193</v>
+      </c>
+      <c r="D4" s="28" t="s">
+        <v>190</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>329</v>
+      </c>
+      <c r="F4" s="25" t="s">
+        <v>404</v>
+      </c>
+      <c r="G4" s="15" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="162">
+      <c r="A5" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>331</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="D5" s="28" t="s">
+        <v>189</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>330</v>
+      </c>
+      <c r="F5" s="28" t="s">
+        <v>402</v>
+      </c>
+      <c r="G5" s="15" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="216">
+      <c r="A6" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="B6" s="16" t="s">
         <v>334</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="40.5">
-      <c r="A3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C3" s="1" t="s">
+      <c r="C6" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="D6" s="29" t="s">
+        <v>189</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>333</v>
+      </c>
+      <c r="F6" s="29" t="s">
+        <v>402</v>
+      </c>
+      <c r="G6" s="17" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="54">
+      <c r="A7" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>299</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>191</v>
+      </c>
+      <c r="D7" s="29" t="s">
+        <v>190</v>
+      </c>
+      <c r="E7" s="17" t="s">
+        <v>421</v>
+      </c>
+      <c r="F7" s="23" t="s">
+        <v>404</v>
+      </c>
+      <c r="G7" s="17" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="108">
+      <c r="A8" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>337</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="D8" s="29" t="s">
+        <v>190</v>
+      </c>
+      <c r="E8" s="17" t="s">
+        <v>422</v>
+      </c>
+      <c r="F8" s="23" t="s">
+        <v>404</v>
+      </c>
+      <c r="G8" s="17" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="108">
+      <c r="A9" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="19" t="s">
+        <v>336</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="D9" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="E9" s="18" t="s">
+        <v>423</v>
+      </c>
+      <c r="F9" s="30" t="s">
+        <v>402</v>
+      </c>
+      <c r="G9" s="18" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="409.5">
+      <c r="A10" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="19" t="s">
+        <v>339</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="D10" s="30" t="s">
+        <v>189</v>
+      </c>
+      <c r="E10" s="18" t="s">
+        <v>424</v>
+      </c>
+      <c r="F10" s="30" t="s">
+        <v>402</v>
+      </c>
+      <c r="G10" s="18" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="94.5">
+      <c r="A11" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="D3" s="8" t="s">
-        <v>192</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="F3" s="1"/>
-    </row>
-    <row r="4" spans="1:6" ht="67.5">
-      <c r="A4" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>410</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>193</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>335</v>
-      </c>
-      <c r="F4" s="1"/>
-    </row>
-    <row r="5" spans="1:6" ht="162">
-      <c r="A5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>192</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>336</v>
-      </c>
-      <c r="F5" s="1"/>
-    </row>
-    <row r="6" spans="1:6" ht="216">
-      <c r="A6" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>192</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>341</v>
-      </c>
-      <c r="F6" s="1"/>
-    </row>
-    <row r="7" spans="1:6" ht="54">
-      <c r="A7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>193</v>
-      </c>
-      <c r="E7" s="4"/>
-      <c r="F7" s="1"/>
-    </row>
-    <row r="8" spans="1:6" ht="108">
-      <c r="A8" s="1" t="s">
+      <c r="B11" s="19" t="s">
+        <v>340</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11" s="30" t="s">
+        <v>190</v>
+      </c>
+      <c r="E11" s="18" t="s">
+        <v>425</v>
+      </c>
+      <c r="F11" s="24" t="s">
+        <v>404</v>
+      </c>
+      <c r="G11" s="18" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="54">
+      <c r="A12" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="B12" s="19" t="s">
+        <v>338</v>
+      </c>
+      <c r="C12" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>193</v>
-      </c>
-      <c r="E8" s="4"/>
-      <c r="F8" s="1"/>
-    </row>
-    <row r="9" spans="1:6" ht="108">
-      <c r="A9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="E9" s="4"/>
-      <c r="F9" s="1"/>
-    </row>
-    <row r="10" spans="1:6" ht="409.5">
-      <c r="A10" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>192</v>
-      </c>
-      <c r="E10" s="4"/>
-      <c r="F10" s="1"/>
-    </row>
-    <row r="11" spans="1:6" ht="94.5">
-      <c r="A11" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>193</v>
-      </c>
-      <c r="E11" s="4"/>
-      <c r="F11" s="1"/>
-    </row>
-    <row r="12" spans="1:6" ht="54">
-      <c r="A12" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>193</v>
-      </c>
-      <c r="E12" s="4"/>
-      <c r="F12" s="1"/>
-    </row>
-    <row r="14" spans="1:6">
+      <c r="D12" s="30" t="s">
+        <v>190</v>
+      </c>
+      <c r="E12" s="18" t="s">
+        <v>426</v>
+      </c>
+      <c r="F12" s="24" t="s">
+        <v>404</v>
+      </c>
+      <c r="G12" s="18" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="6"/>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:7">
       <c r="A15" s="4"/>
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:7">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
@@ -4416,205 +4904,234 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="3" max="3" width="27.625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" t="s">
+      <c r="A1" s="31" t="s">
+        <v>137</v>
+      </c>
+      <c r="B1" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="C1" s="26" t="s">
         <v>139</v>
       </c>
-      <c r="B1" t="s">
-        <v>141</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="D1" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="E1" s="26" t="s">
         <v>142</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="E1" t="s">
-        <v>145</v>
-      </c>
-      <c r="F1" t="s">
-        <v>146</v>
+      <c r="F1" s="31" t="s">
+        <v>427</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="108">
-      <c r="A2" t="s">
-        <v>359</v>
-      </c>
-      <c r="B2" s="1" t="s">
+      <c r="A2" s="27" t="s">
+        <v>347</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" s="27" t="s">
+        <v>67</v>
+      </c>
+      <c r="D2" s="32" t="s">
+        <v>189</v>
+      </c>
+      <c r="E2" s="32" t="s">
+        <v>185</v>
+      </c>
+      <c r="F2" s="32" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="B3" s="27" t="s">
+        <v>341</v>
+      </c>
+      <c r="C3" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="D3" s="38" t="s">
+        <v>190</v>
+      </c>
+      <c r="E3" s="32" t="s">
+        <v>185</v>
+      </c>
+      <c r="F3" s="32" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="121.5">
+      <c r="A4" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>348</v>
+      </c>
+      <c r="C4" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="C2" t="s">
-        <v>68</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>192</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B3" t="s">
-        <v>352</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="D4" s="38" t="s">
+        <v>190</v>
+      </c>
+      <c r="E4" s="32" t="s">
+        <v>185</v>
+      </c>
+      <c r="F4" s="32" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="108">
+      <c r="A5" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="C5" s="33" t="s">
+        <v>72</v>
+      </c>
+      <c r="D5" s="34" t="s">
+        <v>189</v>
+      </c>
+      <c r="E5" s="34" t="s">
+        <v>343</v>
+      </c>
+      <c r="F5" s="34" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="54">
+      <c r="A6" s="33" t="s">
+        <v>349</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>351</v>
+      </c>
+      <c r="C6" s="33" t="s">
+        <v>71</v>
+      </c>
+      <c r="D6" s="34" t="s">
+        <v>189</v>
+      </c>
+      <c r="E6" s="34" t="s">
+        <v>184</v>
+      </c>
+      <c r="F6" s="34" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="40.5">
+      <c r="A7" s="33" t="s">
         <v>57</v>
       </c>
-      <c r="D3" s="6" t="s">
-        <v>198</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="121.5">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>360</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>197</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="108">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C5" t="s">
-        <v>73</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>192</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="54">
-      <c r="A6" t="s">
-        <v>361</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>363</v>
-      </c>
-      <c r="C6" t="s">
-        <v>72</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>192</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="40.5">
-      <c r="A7" t="s">
+      <c r="B7" s="16" t="s">
+        <v>345</v>
+      </c>
+      <c r="C7" s="33" t="s">
+        <v>62</v>
+      </c>
+      <c r="D7" s="39" t="s">
+        <v>190</v>
+      </c>
+      <c r="E7" s="34" t="s">
+        <v>184</v>
+      </c>
+      <c r="F7" s="34" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="175.5">
+      <c r="A8" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="19" t="s">
+        <v>350</v>
+      </c>
+      <c r="C8" s="35" t="s">
+        <v>70</v>
+      </c>
+      <c r="D8" s="36" t="s">
+        <v>189</v>
+      </c>
+      <c r="E8" s="36" t="s">
+        <v>183</v>
+      </c>
+      <c r="F8" s="36" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="409.5">
+      <c r="A9" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="19" t="s">
+        <v>346</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="D9" s="36" t="s">
+        <v>189</v>
+      </c>
+      <c r="E9" s="36" t="s">
+        <v>344</v>
+      </c>
+      <c r="F9" s="36" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="54">
+      <c r="A10" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="B10" s="19" t="s">
+        <v>342</v>
+      </c>
+      <c r="C10" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="C7" t="s">
-        <v>63</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>198</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="175.5">
-      <c r="A8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="C8" t="s">
-        <v>71</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>192</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="409.5">
-      <c r="A9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>192</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="54">
-      <c r="A10" t="s">
+      <c r="D10" s="37" t="s">
+        <v>190</v>
+      </c>
+      <c r="E10" s="36" t="s">
+        <v>183</v>
+      </c>
+      <c r="F10" s="36" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="67.5">
+      <c r="A11" s="35" t="s">
         <v>60</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="C10" t="s">
-        <v>59</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>198</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="81">
-      <c r="A11" t="s">
+      <c r="B11" s="18" t="s">
+        <v>437</v>
+      </c>
+      <c r="C11" s="35" t="s">
         <v>61</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="C11" t="s">
-        <v>62</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>198</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>186</v>
-      </c>
+      <c r="D11" s="37" t="s">
+        <v>190</v>
+      </c>
+      <c r="E11" s="36" t="s">
+        <v>183</v>
+      </c>
+      <c r="F11" s="35"/>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="6"/>
@@ -4624,7 +5141,7 @@
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
       <c r="E15" s="6" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -4650,7 +5167,7 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4658,196 +5175,227 @@
     <col min="1" max="1" width="31.75" customWidth="1"/>
     <col min="2" max="2" width="17.5" customWidth="1"/>
     <col min="3" max="3" width="21.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" t="s">
+      <c r="A1" s="26" t="s">
+        <v>137</v>
+      </c>
+      <c r="B1" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="C1" s="26" t="s">
         <v>139</v>
       </c>
-      <c r="B1" t="s">
-        <v>141</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="D1" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="E1" s="26" t="s">
         <v>142</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="E1" t="s">
-        <v>145</v>
-      </c>
-      <c r="F1" t="s">
-        <v>146</v>
+      <c r="F1" s="31" t="s">
+        <v>328</v>
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" t="s">
+      <c r="A2" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>364</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="B2" s="13" t="s">
+        <v>352</v>
+      </c>
+      <c r="C2" s="27" t="s">
+        <v>63</v>
+      </c>
+      <c r="D2" s="38" t="s">
+        <v>190</v>
+      </c>
+      <c r="E2" s="32" t="s">
+        <v>185</v>
+      </c>
+      <c r="F2" s="32" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="27">
+      <c r="A3" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>353</v>
+      </c>
+      <c r="C3" s="27" t="s">
+        <v>84</v>
+      </c>
+      <c r="D3" s="32" t="s">
+        <v>189</v>
+      </c>
+      <c r="E3" s="32" t="s">
+        <v>185</v>
+      </c>
+      <c r="F3" s="32" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="27">
+      <c r="A4" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>439</v>
+      </c>
+      <c r="C4" s="27" t="s">
+        <v>83</v>
+      </c>
+      <c r="D4" s="32" t="s">
+        <v>189</v>
+      </c>
+      <c r="E4" s="32" t="s">
+        <v>185</v>
+      </c>
+      <c r="F4" s="32" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="67.5">
+      <c r="A5" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>399</v>
+      </c>
+      <c r="C5" s="33" t="s">
+        <v>81</v>
+      </c>
+      <c r="D5" s="39" t="s">
+        <v>190</v>
+      </c>
+      <c r="E5" s="34" t="s">
+        <v>184</v>
+      </c>
+      <c r="F5" s="34" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="94.5">
+      <c r="A6" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>354</v>
+      </c>
+      <c r="C6" s="34" t="s">
+        <v>82</v>
+      </c>
+      <c r="D6" s="34" t="s">
+        <v>189</v>
+      </c>
+      <c r="E6" s="34" t="s">
+        <v>184</v>
+      </c>
+      <c r="F6" s="34" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="27">
+      <c r="A7" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="D2" s="6" t="s">
-        <v>193</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="27">
-      <c r="A3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="B7" s="16" t="s">
+        <v>355</v>
+      </c>
+      <c r="C7" s="34" t="s">
+        <v>210</v>
+      </c>
+      <c r="D7" s="39" t="s">
+        <v>190</v>
+      </c>
+      <c r="E7" s="34" t="s">
+        <v>184</v>
+      </c>
+      <c r="F7" s="34" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="67.5">
+      <c r="A8" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="19" t="s">
+        <v>356</v>
+      </c>
+      <c r="C8" s="36" t="s">
+        <v>209</v>
+      </c>
+      <c r="D8" s="36" t="s">
+        <v>189</v>
+      </c>
+      <c r="E8" s="36" t="s">
+        <v>183</v>
+      </c>
+      <c r="F8" s="36" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="81">
+      <c r="A9" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="19" t="s">
+        <v>358</v>
+      </c>
+      <c r="C9" s="36" t="s">
         <v>85</v>
       </c>
-      <c r="D3" s="6" t="s">
-        <v>192</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="27">
-      <c r="A4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>366</v>
-      </c>
-      <c r="C4" t="s">
-        <v>84</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>192</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" t="s">
-        <v>69</v>
-      </c>
-      <c r="B5" t="s">
-        <v>413</v>
-      </c>
-      <c r="C5" t="s">
-        <v>82</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>193</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="94.5">
-      <c r="A6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>367</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>192</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="27">
-      <c r="A7" t="s">
+      <c r="D9" s="36" t="s">
+        <v>189</v>
+      </c>
+      <c r="E9" s="36" t="s">
+        <v>183</v>
+      </c>
+      <c r="F9" s="36" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="40.5">
+      <c r="A10" s="35" t="s">
         <v>65</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>368</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>215</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>193</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="67.5">
-      <c r="A8" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>214</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>192</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="81">
-      <c r="A9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>371</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>192</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="40.5">
-      <c r="A10" t="s">
+      <c r="B10" s="19" t="s">
+        <v>359</v>
+      </c>
+      <c r="C10" s="36" t="s">
+        <v>211</v>
+      </c>
+      <c r="D10" s="37" t="s">
+        <v>190</v>
+      </c>
+      <c r="E10" s="36" t="s">
+        <v>183</v>
+      </c>
+      <c r="F10" s="36" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="40.5">
+      <c r="A11" s="35" t="s">
         <v>66</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>372</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>216</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>193</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="40.5">
-      <c r="A11" t="s">
-        <v>67</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="C11" t="s">
-        <v>81</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>193</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>186</v>
+      <c r="B11" s="19" t="s">
+        <v>360</v>
+      </c>
+      <c r="C11" s="35" t="s">
+        <v>80</v>
+      </c>
+      <c r="D11" s="37" t="s">
+        <v>190</v>
+      </c>
+      <c r="E11" s="36" t="s">
+        <v>183</v>
+      </c>
+      <c r="F11" s="36" t="s">
+        <v>441</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -4893,7 +5441,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="27">
@@ -4910,7 +5458,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="27">
@@ -4927,7 +5475,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="27">
@@ -4944,7 +5492,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="27">
@@ -4961,7 +5509,7 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="27">
@@ -4978,10 +5526,10 @@
     </row>
     <row r="17" spans="1:8" ht="27">
       <c r="A17" s="4" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="27">
@@ -4998,7 +5546,7 @@
     </row>
     <row r="20" spans="1:8">
       <c r="A20" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="27">
@@ -5015,7 +5563,7 @@
     </row>
     <row r="23" spans="1:8">
       <c r="A23" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="27">
@@ -5032,7 +5580,7 @@
     </row>
     <row r="26" spans="1:8">
       <c r="A26" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
@@ -5053,12 +5601,12 @@
     </row>
     <row r="29" spans="1:8">
       <c r="A29" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="31" spans="1:8">
       <c r="A31" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
   </sheetData>
@@ -5069,10 +5617,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D40"/>
+  <dimension ref="A1:D35"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="A40" sqref="A40"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D46" sqref="A39:D46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5091,7 +5639,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="27">
@@ -5108,7 +5656,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="27">
@@ -5125,7 +5673,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="27">
@@ -5142,7 +5690,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="27">
@@ -5159,7 +5707,7 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="27">
@@ -5176,7 +5724,7 @@
     </row>
     <row r="17" spans="1:4" ht="54">
       <c r="A17" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="27">
@@ -5193,7 +5741,7 @@
     </row>
     <row r="20" spans="1:4" ht="81">
       <c r="A20" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="27">
@@ -5210,7 +5758,7 @@
     </row>
     <row r="22" spans="1:4" ht="94.5">
       <c r="A22" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="27">
@@ -5227,7 +5775,7 @@
     </row>
     <row r="25" spans="1:4" ht="81">
       <c r="A25" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="27">
@@ -5244,7 +5792,7 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="27">
@@ -5261,17 +5809,12 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1">
-      <c r="A40" t="s">
-        <v>132</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -5304,7 +5847,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="27">
@@ -5321,7 +5864,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="27">
@@ -5338,7 +5881,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="27">
@@ -5355,7 +5898,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="27">
@@ -5372,7 +5915,7 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="27">
@@ -5389,7 +5932,7 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="27">
@@ -5406,7 +5949,7 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="27">
@@ -5447,7 +5990,7 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>
